--- a/training/output/CNN/W/W3_W1.xlsx
+++ b/training/output/CNN/W/W3_W1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,802 +447,1602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.3841666666666667</v>
+        <v>0.05291666666666667</v>
       </c>
       <c r="B2" t="n">
-        <v>3.167953872680664</v>
+        <v>3.110471725463867</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.3189583333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>2.414274921417237</v>
+        <v>2.919286906719208</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.8058333333333333</v>
+        <v>0.3052083333333333</v>
       </c>
       <c r="B4" t="n">
-        <v>2.137466616630554</v>
+        <v>2.900508403778076</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8408333333333333</v>
+        <v>0.2983333333333333</v>
       </c>
       <c r="B5" t="n">
-        <v>1.967879123687744</v>
+        <v>2.854519665241241</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.8633333333333333</v>
+        <v>0.2945833333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>1.838422741889954</v>
+        <v>2.772867619991302</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8858333333333333</v>
+        <v>0.3377083333333333</v>
       </c>
       <c r="B7" t="n">
-        <v>1.732003140449524</v>
+        <v>2.733091413974762</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.8758333333333332</v>
+        <v>0.348125</v>
       </c>
       <c r="B8" t="n">
-        <v>1.677388525009155</v>
+        <v>2.704309701919556</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8808333333333332</v>
+        <v>0.3554166666666667</v>
       </c>
       <c r="B9" t="n">
-        <v>1.70316276550293</v>
+        <v>2.678768992424011</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.8758333333333332</v>
+        <v>0.33</v>
       </c>
       <c r="B10" t="n">
-        <v>1.644411377906799</v>
+        <v>2.673223495483398</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.8933333333333333</v>
+        <v>0.365</v>
       </c>
       <c r="B11" t="n">
-        <v>1.590190315246582</v>
+        <v>2.633139312267303</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.8783333333333333</v>
+        <v>0.3779166666666667</v>
       </c>
       <c r="B12" t="n">
-        <v>1.58115318775177</v>
+        <v>2.58453494310379</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.8883333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="B13" t="n">
-        <v>1.543067488670349</v>
+        <v>2.570443630218506</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.8858333333333333</v>
+        <v>0.3325</v>
       </c>
       <c r="B14" t="n">
-        <v>1.554572353363037</v>
+        <v>2.601514637470245</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.3654166666666667</v>
       </c>
       <c r="B15" t="n">
-        <v>1.518025026321411</v>
+        <v>2.567294955253601</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.8783333333333333</v>
+        <v>0.355</v>
       </c>
       <c r="B16" t="n">
-        <v>1.519548869132996</v>
+        <v>2.501991927623749</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.8808333333333332</v>
+        <v>0.345</v>
       </c>
       <c r="B17" t="n">
-        <v>1.570895166397095</v>
+        <v>2.494415044784546</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.8908333333333333</v>
+        <v>0.345</v>
       </c>
       <c r="B18" t="n">
-        <v>1.510879850387573</v>
+        <v>2.497946202754974</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.8933333333333333</v>
+        <v>0.3675</v>
       </c>
       <c r="B19" t="n">
-        <v>1.48525764465332</v>
+        <v>2.478517115116119</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9008333333333333</v>
+        <v>0.3610416666666666</v>
       </c>
       <c r="B20" t="n">
-        <v>1.470899634361267</v>
+        <v>2.466665923595428</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.8933333333333333</v>
+        <v>0.4264583333333333</v>
       </c>
       <c r="B21" t="n">
-        <v>1.489002737998962</v>
+        <v>2.420781373977661</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9008333333333333</v>
+        <v>0.350625</v>
       </c>
       <c r="B22" t="n">
-        <v>1.4949684715271</v>
+        <v>2.410484910011292</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.8808333333333332</v>
+        <v>0.3633333333333333</v>
       </c>
       <c r="B23" t="n">
-        <v>1.454502620697022</v>
+        <v>2.452302813529968</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9008333333333333</v>
+        <v>0.3941666666666667</v>
       </c>
       <c r="B24" t="n">
-        <v>1.458706002235413</v>
+        <v>2.393940031528473</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9008333333333333</v>
+        <v>0.3375</v>
       </c>
       <c r="B25" t="n">
-        <v>1.459477667808533</v>
+        <v>2.401903510093689</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.8958333333333333</v>
+        <v>0.3664583333333333</v>
       </c>
       <c r="B26" t="n">
-        <v>1.449667739868164</v>
+        <v>2.356594324111938</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9058333333333333</v>
+        <v>0.3825</v>
       </c>
       <c r="B27" t="n">
-        <v>1.476446471214294</v>
+        <v>2.368909955024719</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.8983333333333333</v>
+        <v>0.400625</v>
       </c>
       <c r="B28" t="n">
-        <v>1.448593626022339</v>
+        <v>2.371133387088776</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.8933333333333333</v>
+        <v>0.3604166666666667</v>
       </c>
       <c r="B29" t="n">
-        <v>1.442858357429504</v>
+        <v>2.314301252365112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8983333333333333</v>
+        <v>0.3966666666666667</v>
       </c>
       <c r="B30" t="n">
-        <v>1.469033455848694</v>
+        <v>2.310701191425323</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.8883333333333333</v>
+        <v>0.406875</v>
       </c>
       <c r="B31" t="n">
-        <v>1.520730752944946</v>
+        <v>2.339548170566559</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9008333333333333</v>
+        <v>0.4058333333333333</v>
       </c>
       <c r="B32" t="n">
-        <v>1.451964812278748</v>
+        <v>2.319425284862518</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.8958333333333333</v>
+        <v>0.411875</v>
       </c>
       <c r="B33" t="n">
-        <v>1.445859451293945</v>
+        <v>2.326337933540344</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9058333333333333</v>
+        <v>0.3764583333333333</v>
       </c>
       <c r="B34" t="n">
-        <v>1.428693251609802</v>
+        <v>2.300803184509277</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.9033333333333333</v>
+        <v>0.3635416666666667</v>
       </c>
       <c r="B35" t="n">
-        <v>1.448236470222473</v>
+        <v>2.30157059431076</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.8933333333333333</v>
+        <v>0.4239583333333333</v>
       </c>
       <c r="B36" t="n">
-        <v>1.425736179351807</v>
+        <v>2.279835104942322</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.8983333333333333</v>
+        <v>0.3779166666666667</v>
       </c>
       <c r="B37" t="n">
-        <v>1.4219575548172</v>
+        <v>2.247963964939117</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9008333333333333</v>
+        <v>0.4595833333333333</v>
       </c>
       <c r="B38" t="n">
-        <v>1.418141927719116</v>
+        <v>2.255302786827087</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.8958333333333333</v>
+        <v>0.4275</v>
       </c>
       <c r="B39" t="n">
-        <v>1.426044173240662</v>
+        <v>2.285159766674042</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.8933333333333333</v>
+        <v>0.3554166666666667</v>
       </c>
       <c r="B40" t="n">
-        <v>1.427601828575134</v>
+        <v>2.315981328487396</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9008333333333333</v>
+        <v>0.4008333333333333</v>
       </c>
       <c r="B41" t="n">
-        <v>1.443235120773315</v>
+        <v>2.289678573608398</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9033333333333333</v>
+        <v>0.3910416666666667</v>
       </c>
       <c r="B42" t="n">
-        <v>1.418590726852417</v>
+        <v>2.207750737667084</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.8983333333333333</v>
+        <v>0.4066666666666667</v>
       </c>
       <c r="B43" t="n">
-        <v>1.414168295860291</v>
+        <v>2.195257961750031</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9033333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="B44" t="n">
-        <v>1.426141829490662</v>
+        <v>2.192830801010132</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.8933333333333333</v>
+        <v>0.420625</v>
       </c>
       <c r="B45" t="n">
-        <v>1.425432534217834</v>
+        <v>2.169592678546906</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.8983333333333333</v>
+        <v>0.4814583333333333</v>
       </c>
       <c r="B46" t="n">
-        <v>1.416670541763306</v>
+        <v>2.285837888717651</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9033333333333333</v>
+        <v>0.4625</v>
       </c>
       <c r="B47" t="n">
-        <v>1.411005892753601</v>
+        <v>2.211658895015717</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9033333333333333</v>
+        <v>0.4464583333333333</v>
       </c>
       <c r="B48" t="n">
-        <v>1.447474822998047</v>
+        <v>2.17194402217865</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9033333333333333</v>
+        <v>0.4564583333333333</v>
       </c>
       <c r="B49" t="n">
-        <v>1.433692054748535</v>
+        <v>2.169804394245148</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9033333333333333</v>
+        <v>0.5004166666666666</v>
       </c>
       <c r="B50" t="n">
-        <v>1.42532114982605</v>
+        <v>2.119332849979401</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9033333333333333</v>
+        <v>0.445</v>
       </c>
       <c r="B51" t="n">
-        <v>1.408688426017761</v>
+        <v>2.132359564304352</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9033333333333333</v>
+        <v>0.4764583333333333</v>
       </c>
       <c r="B52" t="n">
-        <v>1.422543835639954</v>
+        <v>2.16416323184967</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.8933333333333333</v>
+        <v>0.489375</v>
       </c>
       <c r="B53" t="n">
-        <v>1.427131972312927</v>
+        <v>2.151566207408905</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9058333333333333</v>
+        <v>0.4947916666666667</v>
       </c>
       <c r="B54" t="n">
-        <v>1.409665102958679</v>
+        <v>2.11870265007019</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9058333333333333</v>
+        <v>0.4920833333333333</v>
       </c>
       <c r="B55" t="n">
-        <v>1.411780996322632</v>
+        <v>2.091826498508453</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.5020833333333333</v>
       </c>
       <c r="B56" t="n">
-        <v>1.416089472770691</v>
+        <v>2.081404596567154</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9008333333333333</v>
+        <v>0.485</v>
       </c>
       <c r="B57" t="n">
-        <v>1.431275515556335</v>
+        <v>2.039504766464233</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.8983333333333333</v>
+        <v>0.52</v>
       </c>
       <c r="B58" t="n">
-        <v>1.428586711883545</v>
+        <v>2.042363703250885</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.8883333333333333</v>
+        <v>0.5454166666666667</v>
       </c>
       <c r="B59" t="n">
-        <v>1.440198345184326</v>
+        <v>2.03723469376564</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.8783333333333333</v>
+        <v>0.5552083333333333</v>
       </c>
       <c r="B60" t="n">
-        <v>1.492407164573669</v>
+        <v>1.99646183848381</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.8983333333333333</v>
+        <v>0.525</v>
       </c>
       <c r="B61" t="n">
-        <v>1.42907829284668</v>
+        <v>2.006337523460388</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.8983333333333333</v>
+        <v>0.5454166666666665</v>
       </c>
       <c r="B62" t="n">
-        <v>1.436827130317688</v>
+        <v>2.004314184188843</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.8808333333333332</v>
+        <v>0.5527083333333334</v>
       </c>
       <c r="B63" t="n">
-        <v>1.437385301589966</v>
+        <v>2.026904881000519</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9008333333333333</v>
+        <v>0.5695833333333333</v>
       </c>
       <c r="B64" t="n">
-        <v>1.427532420158386</v>
+        <v>1.985555946826935</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.8983333333333333</v>
+        <v>0.584375</v>
       </c>
       <c r="B65" t="n">
-        <v>1.412464709281921</v>
+        <v>1.966537564992905</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.8908333333333333</v>
+        <v>0.594375</v>
       </c>
       <c r="B66" t="n">
-        <v>1.432442655563354</v>
+        <v>1.909456938505173</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.8883333333333333</v>
+        <v>0.6272916666666667</v>
       </c>
       <c r="B67" t="n">
-        <v>1.432277498245239</v>
+        <v>1.956350564956665</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.8983333333333333</v>
+        <v>0.6095833333333334</v>
       </c>
       <c r="B68" t="n">
-        <v>1.408868188858032</v>
+        <v>1.92243817448616</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9033333333333333</v>
+        <v>0.5920833333333334</v>
       </c>
       <c r="B69" t="n">
-        <v>1.406378874778748</v>
+        <v>1.930862456560135</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.9008333333333333</v>
+        <v>0.571875</v>
       </c>
       <c r="B70" t="n">
-        <v>1.407064881324768</v>
+        <v>1.896687239408493</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9058333333333333</v>
+        <v>0.5970833333333334</v>
       </c>
       <c r="B71" t="n">
-        <v>1.402836909294128</v>
+        <v>1.872271358966827</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.9008333333333333</v>
+        <v>0.5970833333333334</v>
       </c>
       <c r="B72" t="n">
-        <v>1.412233004570007</v>
+        <v>1.912457406520844</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.8983333333333333</v>
+        <v>0.6220833333333334</v>
       </c>
       <c r="B73" t="n">
-        <v>1.416338200569153</v>
+        <v>1.887531787157059</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.8983333333333333</v>
+        <v>0.584375</v>
       </c>
       <c r="B74" t="n">
-        <v>1.413452367782593</v>
+        <v>1.883746773004532</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.8983333333333333</v>
+        <v>0.6295833333333334</v>
       </c>
       <c r="B75" t="n">
-        <v>1.416978802680969</v>
+        <v>1.897839456796646</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9008333333333333</v>
+        <v>0.6372916666666666</v>
       </c>
       <c r="B76" t="n">
-        <v>1.40033486366272</v>
+        <v>1.898772120475769</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9033333333333333</v>
+        <v>0.6370833333333333</v>
       </c>
       <c r="B77" t="n">
-        <v>1.405815997123718</v>
+        <v>1.794863373041153</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9033333333333333</v>
+        <v>0.589375</v>
       </c>
       <c r="B78" t="n">
-        <v>1.400263323783874</v>
+        <v>1.827643930912018</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.9033333333333333</v>
+        <v>0.5997916666666666</v>
       </c>
       <c r="B79" t="n">
-        <v>1.403255915641785</v>
+        <v>1.844727426767349</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9033333333333333</v>
+        <v>0.6147916666666666</v>
       </c>
       <c r="B80" t="n">
-        <v>1.401448268890381</v>
+        <v>1.764228850603104</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9008333333333333</v>
+        <v>0.6320833333333333</v>
       </c>
       <c r="B81" t="n">
-        <v>1.400908222198486</v>
+        <v>1.743919014930725</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9033333333333333</v>
+        <v>0.6402083333333334</v>
       </c>
       <c r="B82" t="n">
-        <v>1.402823309898376</v>
+        <v>1.746080011129379</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.8958333333333333</v>
+        <v>0.6095833333333334</v>
       </c>
       <c r="B83" t="n">
-        <v>1.404840731620788</v>
+        <v>1.72206512093544</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.9058333333333333</v>
+        <v>0.64</v>
       </c>
       <c r="B84" t="n">
-        <v>1.405497875213623</v>
+        <v>1.692515641450882</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.8958333333333333</v>
+        <v>0.6116666666666666</v>
       </c>
       <c r="B85" t="n">
-        <v>1.407002277374268</v>
+        <v>1.721411734819412</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.8983333333333333</v>
+        <v>0.63</v>
       </c>
       <c r="B86" t="n">
-        <v>1.408629379272461</v>
+        <v>1.675284415483475</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.8908333333333333</v>
+        <v>0.6214583333333333</v>
       </c>
       <c r="B87" t="n">
-        <v>1.410408430099487</v>
+        <v>1.695729196071625</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.8958333333333333</v>
+        <v>0.6745833333333333</v>
       </c>
       <c r="B88" t="n">
-        <v>1.408574576377869</v>
+        <v>1.683523565530777</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9008333333333333</v>
+        <v>0.6445833333333334</v>
       </c>
       <c r="B89" t="n">
-        <v>1.401031928062439</v>
+        <v>1.665941804647446</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.8958333333333333</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="B90" t="n">
-        <v>1.398289685249329</v>
+        <v>1.707748353481293</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.8958333333333333</v>
+        <v>0.6322916666666667</v>
       </c>
       <c r="B91" t="n">
-        <v>1.400068039894104</v>
+        <v>1.676429390907288</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.8958333333333333</v>
+        <v>0.6475</v>
       </c>
       <c r="B92" t="n">
-        <v>1.398339614868164</v>
+        <v>1.663998961448669</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.8983333333333333</v>
+        <v>0.6275000000000001</v>
       </c>
       <c r="B93" t="n">
-        <v>1.399911351203919</v>
+        <v>1.627688884735107</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.8983333333333333</v>
+        <v>0.6443749999999999</v>
       </c>
       <c r="B94" t="n">
-        <v>1.401780433654785</v>
+        <v>1.636795967817307</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.8983333333333333</v>
+        <v>0.6416666666666666</v>
       </c>
       <c r="B95" t="n">
-        <v>1.396675038337708</v>
+        <v>1.628576666116714</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.8983333333333333</v>
+        <v>0.6725</v>
       </c>
       <c r="B96" t="n">
-        <v>1.39842161655426</v>
+        <v>1.599185764789581</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.8983333333333333</v>
+        <v>0.6391666666666667</v>
       </c>
       <c r="B97" t="n">
-        <v>1.394513440132141</v>
+        <v>1.59726881980896</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.8983333333333333</v>
+        <v>0.6466666666666666</v>
       </c>
       <c r="B98" t="n">
-        <v>1.395377297401428</v>
+        <v>1.596523404121399</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.8983333333333333</v>
+        <v>0.7170833333333334</v>
       </c>
       <c r="B99" t="n">
-        <v>1.395143795013428</v>
+        <v>1.60853573679924</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.8983333333333333</v>
+        <v>0.6720833333333334</v>
       </c>
       <c r="B100" t="n">
-        <v>1.400577321052551</v>
+        <v>1.594328075647354</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.8883333333333333</v>
+        <v>0.7133333333333334</v>
       </c>
       <c r="B101" t="n">
-        <v>1.409781913757324</v>
+        <v>1.552963584661484</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.7208333333333333</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1.549527734518051</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.6864583333333334</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1.540569394826889</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.7872916666666666</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1.529855668544769</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1.546023488044739</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.7152083333333333</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1.54060223698616</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.7902083333333334</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.469205319881439</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.7864583333333334</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1.523511469364166</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.7875</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1.486341536045074</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.8079166666666666</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1.449585884809494</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.7389583333333334</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1.569450467824936</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.7452083333333334</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.572889626026154</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.474645733833313</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.8052083333333333</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.445500522851944</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.8214583333333334</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.451831340789795</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.509203165769577</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.8150000000000001</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.393870025873184</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.87125</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1.358802318572998</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.8483333333333334</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1.396095156669617</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.8079166666666666</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1.392748862504959</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.8575</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1.321988105773926</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.85375</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1.370897591114044</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.8891666666666667</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1.345260471105576</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.8227083333333334</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1.311164081096649</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.8129166666666666</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1.342948138713837</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.85125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1.291805773973465</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.9014583333333334</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1.253791391849518</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.8889583333333334</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1.257445335388184</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.8864583333333333</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1.304241627454758</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.8533333333333334</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1.312362164258957</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.8589583333333334</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1.431781470775604</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.86625</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1.369996726512909</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.9066666666666666</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1.215194940567017</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.909375</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1.207131564617157</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.9039583333333333</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1.195789188146591</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.8891666666666667</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1.210617274045944</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.909375</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1.200242340564728</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.8864583333333333</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1.208249151706696</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.8360416666666666</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.459712415933609</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.8889583333333334</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1.20720374584198</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.9037500000000001</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1.176826626062393</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.9066666666666666</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1.161361932754517</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.9066666666666666</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1.124020159244537</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.9214583333333334</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1.128966391086578</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.899375</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1.184905827045441</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.9214583333333334</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1.12713685631752</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.9085416666666667</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1.107675760984421</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.9139583333333333</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1.136921942234039</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.9239583333333333</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1.107479840517044</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.9164583333333334</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1.046299159526825</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.9264583333333334</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1.025579273700714</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.9189583333333334</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1.064438819885254</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9185416666666666</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1.050431206822395</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.9216666666666666</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1.006458908319473</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.9291666666666667</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.9993284493684769</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.92375</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1.015819251537323</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.9320833333333334</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1.126049697399139</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.9020833333333335</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1.088151663541794</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.916875</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1.033926665782928</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.9447916666666667</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.9664129167795181</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.931875</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.9370247572660446</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.9470833333333334</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.9218087196350098</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.914375</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1.012486457824707</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9343750000000001</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.9395173937082291</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.9320833333333334</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.9360789954662323</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.9445833333333334</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.9309937804937363</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.939375</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.8847019672393799</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.9370833333333334</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.9166866987943649</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.9243750000000001</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.9020401686429977</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.944375</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.9107633382081985</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.8788670301437378</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.946875</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.8519357144832611</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.9395833333333334</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.8994834870100021</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.936875</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.880355030298233</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.946875</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.8397232592105865</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.949375</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.8280699700117111</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.936875</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.8480986207723618</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.9497916666666666</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.8464366793632507</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.934375</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.832769900560379</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.944375</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.8093323856592178</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9445833333333333</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.819328635931015</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.944375</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.8048515170812607</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.819911926984787</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.9443750000000001</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.8152922987937927</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.941875</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.8116432279348373</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.9393750000000001</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.7966511994600296</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.939375</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.7950921207666397</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.9445833333333333</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.8046061396598816</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.9520833333333334</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.785398468375206</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9495833333333333</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.7890240103006363</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.9470833333333334</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.7799731940031052</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9470833333333334</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.7775893658399582</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.9520833333333334</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.7830415219068527</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.946875</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.7931565642356873</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.9495833333333334</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.7770587950944901</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9520833333333334</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.7771229296922684</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9470833333333334</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.7826882749795914</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.9445833333333334</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.7941361963748932</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.9470833333333334</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.7809499353170395</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.9445833333333333</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.7757498025894165</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.9520833333333334</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7679108083248138</v>
       </c>
     </row>
   </sheetData>
